--- a/excel/idr_ensanut.xlsx
+++ b/excel/idr_ensanut.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\iguandonte\lab\github\boxplot_eat_lancet\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C5E085-968B-4DB6-9297-EBA8248F8B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D4C084-D02A-49EF-BCC1-E8CCA2E8DA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B35E72EA-074B-4DAD-86D3-B8592296140B}"/>
   </bookViews>
@@ -43,46 +43,46 @@
     <t>freq</t>
   </si>
   <si>
-    <t>proteina_animal_prom</t>
-  </si>
-  <si>
     <t>proteina_animal</t>
   </si>
   <si>
-    <t>vegetales_prom</t>
-  </si>
-  <si>
     <t>vegetales</t>
   </si>
   <si>
-    <t>verduras_almidon_prom</t>
-  </si>
-  <si>
     <t xml:space="preserve">verduras_almidon </t>
   </si>
   <si>
-    <t>lacteos_prom</t>
-  </si>
-  <si>
     <t>lacteos</t>
   </si>
   <si>
-    <t>cereales_integrales_prom</t>
-  </si>
-  <si>
     <t xml:space="preserve">cereales_integrales </t>
   </si>
   <si>
-    <t>frutas_prom</t>
-  </si>
-  <si>
     <t xml:space="preserve">frutas </t>
   </si>
   <si>
-    <t>proteina_vegetal_prom</t>
-  </si>
-  <si>
     <t xml:space="preserve">proteina_vegetal </t>
+  </si>
+  <si>
+    <t>proteina_animal_idr</t>
+  </si>
+  <si>
+    <t>vegetales_idr</t>
+  </si>
+  <si>
+    <t>verduras_almidon_idr</t>
+  </si>
+  <si>
+    <t>lacteos_idr</t>
+  </si>
+  <si>
+    <t>cereales_integrales_idr</t>
+  </si>
+  <si>
+    <t>frutas_idr</t>
+  </si>
+  <si>
+    <t>proteina_vegetal_idr</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>42</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>137.56</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>157.99</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>208.93</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>250</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>97</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>80</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>92.9</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>128.28</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>40</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>110.95</v>

--- a/excel/idr_ensanut.xlsx
+++ b/excel/idr_ensanut.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\iguandonte\lab\github\boxplot_eat_lancet\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D4C084-D02A-49EF-BCC1-E8CCA2E8DA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDDDB43-CB38-48C6-9E24-ED34D346FFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B35E72EA-074B-4DAD-86D3-B8592296140B}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{B35E72EA-074B-4DAD-86D3-B8592296140B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
